--- a/assets/i18n/quest_main.xlsx
+++ b/assets/i18n/quest_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BE56A13-E378-40CD-9A55-2B3CA538EC77}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CC78ED-E912-4BCD-9BA5-BA82E3EC1F61}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>Personne Mystère</t>
   </si>
   <si>
-    <t>Félicitations, vous avez lu votre premier message !\nMaintenant venez me voir dans la Zone à Accès Restreint</t>
-  </si>
-  <si>
     <t>Quête Principale</t>
   </si>
   <si>
@@ -119,7 +116,10 @@
     <t>Hello, player</t>
   </si>
   <si>
-    <t>Congratulations, you have read your first message !\nNow meet me in the Restricted Area</t>
+    <t>[p]Congratulations, you have read your first message ![/p][p]Now meet me in the Restricted Area[/p]</t>
+  </si>
+  <si>
+    <t>[p]Félicitations, vous avez lu votre premier message ![/p][p]Maintenant venez me voir dans la Zone à Accès Restreint[/p]</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,18 +525,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -568,15 +568,15 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/quest_main.xlsx
+++ b/assets/i18n/quest_main.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CC78ED-E912-4BCD-9BA5-BA82E3EC1F61}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39259A14-0B8F-4DBF-BB6D-2CF5B6F4ED79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -98,12 +98,6 @@
     <t>Rencontrer la Personne Mystère dans la Zone à Accès Restreint</t>
   </si>
   <si>
-    <t>Give a ham sandwich to the Administrator</t>
-  </si>
-  <si>
-    <t>Donnez un sandwich au jambon à l'Administratrice</t>
-  </si>
-  <si>
     <t>Vous avez besoin d'une carte d'accès</t>
   </si>
   <si>
@@ -120,6 +114,12 @@
   </si>
   <si>
     <t>[p]Félicitations, vous avez lu votre premier message ![/p][p]Maintenant venez me voir dans la Zone à Accès Restreint[/p]</t>
+  </si>
+  <si>
+    <t>Give a sandwich or a burger with ham to the Administrator</t>
+  </si>
+  <si>
+    <t>Donnez un sandwich ou un burger avec du jambon à l'Administratrice</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,18 +525,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,10 +573,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/quest_main.xlsx
+++ b/assets/i18n/quest_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39259A14-0B8F-4DBF-BB6D-2CF5B6F4ED79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CCCEFD-02B1-4707-9D74-9C8D8CDE53C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>clés</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Donnez un sandwich ou un burger avec du jambon à l'Administratrice</t>
+  </si>
+  <si>
+    <t>Find the Waiter's ring</t>
+  </si>
+  <si>
+    <t>Trouver la bague du serveur</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +601,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/quest_main.xlsx
+++ b/assets/i18n/quest_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CCCEFD-02B1-4707-9D74-9C8D8CDE53C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA91F46C-B7B4-460C-9913-1F68992242B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>clés</t>
   </si>
@@ -119,13 +119,19 @@
     <t>Give a sandwich or a burger with ham to the Administrator</t>
   </si>
   <si>
-    <t>Donnez un sandwich ou un burger avec du jambon à l'Administratrice</t>
-  </si>
-  <si>
     <t>Find the Waiter's ring</t>
   </si>
   <si>
     <t>Trouver la bague du serveur</t>
+  </si>
+  <si>
+    <t>Give a ham sandwich with pickles to the Administrator</t>
+  </si>
+  <si>
+    <t>Donner un sandwich ou un burger avec du jambon à l'Administratrice</t>
+  </si>
+  <si>
+    <t>Donner un sandwich au jambon avec des cornichons à l'Administratrice</t>
   </si>
 </sst>
 </file>
@@ -477,16 +483,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,7 +588,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,10 +609,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
